--- a/food.xlsx
+++ b/food.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,32 +476,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>coke</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Jaouda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Coke ORIGINAL</t>
+          <t>Perly</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Beverages and beverages preparations,Beverages,Carbonated drinks,Sodas,Non-alcoholic beverages,Colas,Sweetened beverages</t>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts,Cream cheeses,fr:Fromages-frais-sucres</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.5l</t>
+          <t>85 g</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Austria,Belgium,Bulgaria,Croatia,France,Germany,Hungary,Morocco,Poland,Romania,Serbia,Spain,Switzerland,United Kingdom</t>
+          <t>Morocco,United States</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -516,37 +516,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>coke</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Coke</t>
+          <t>Jaouda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Coca-Cola Zero</t>
+          <t>Lait</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bebidas y preparaciones de bebidas, Bebidas, Bebidas carbonatadas, Bebidas endulzadas artificialmente, Sodas, Bebidas light, Bebidas no alcohólicas, Bebidas carbonatadas sin jugo de frutas, Bebidas de cola, Sodas light, en:Carbonated soft drink without fruit juice without sugar and with artificial sweeteners, Bebida de cola light</t>
+          <t>Dairies,Meals,Milks (liquid and powder),Milks,Semi-skimmed milks</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2L</t>
+          <t>450 ml</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Belgium,Bulgaria,Croatia,France,Georgia,Germany,Romania,Spain,Ukraine</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -556,37 +556,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>coke</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Coke ZÉRO®</t>
+          <t>MILKY FOOD PROFESSIONAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PET 1.25L C.COLA ZERO</t>
+          <t>Fromage blanc nature</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Beverages and beverages preparations, Beverages, Carbonated drinks, Artificially sweetened beverages, Sodas, Diet beverages, Colas, Diet sodas, Diet cola soft drink, en:sweetened-beverages</t>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Desserts,Dairy desserts,Fermented dairy desserts,Fromages blancs - petit suisses and skyr,Plain fermented dairy desserts,fr:Fromages blancs,fr:Fromages blancs natures</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1,25 L e</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Belgique,France,Allemagne,Suisse</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -596,37 +596,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>coke</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Coca Cola, Coke</t>
+          <t>Jaouda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Original Taste</t>
+          <t>uht jaouda 1L</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bebidas,Bebidas carbonatadas,Sodas,Colas,Bebidas adoçadas</t>
+          <t>Dairies,Milks,Homogenized milks,UHT Milks,Whole milks,Cow milks,Whole milk UHT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1,5 l</t>
+          <t>1L</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>França,Paquistão,Portugal,Sérvia</t>
+          <t>Democratic Republic of the Congo,Mauritania,Morocco,United States</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -636,37 +636,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>coke</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Jaouda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Diet Coke</t>
+          <t>Jben</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Beverages, Carbonated drinks, Artificially sweetened beverages, Sodas, Diet beverages, Colas, Diet sodas, Diet cola soft drink, Sweetened beverages</t>
+          <t>en:Dairies, en:Fermented foods, en:Fermented milk products, en:Spreads, en:Cheeses, en:Salted spreads, en:Cheese spreads, en:Fromage frais nature à 21%de matière grasse</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>330 ml</t>
+          <t>160g</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>France,United Kingdom</t>
+          <t>Maroc,en:morocco</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -676,32 +676,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>coke</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Marmite,Unilever</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BTE 33CL SLIM CHERRY COKE</t>
+          <t>Marmite Yeast Extract</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Boissons et préparations de boissons,Boissons,Boissons gazeuses,Sodas,Sodas au cola,Boissons avec sucre ajouté,Récipient aluminium</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Buttermilks, en:yeast-extract-spreads</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>330 ml</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>France,Allemagne,Irlande,Italie,Pays-Bas,Espagne,Royaume-Uni,États-Unis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -716,37 +716,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>coke</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Coke</t>
+          <t>centrale danone</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Coke Original Taste</t>
+          <t>Lait Frais</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Beverages and beverages preparations,Beverages,Carbonated drinks,Sodas,Colas,Sweetened beverages</t>
+          <t>Dairies, Milks, Fresh milks, en:semi-skimmed-milks</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12 fl oz (355 ml)</t>
+          <t>470 ml</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>en:Morocco</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -756,37 +756,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>coke</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Coca-Cola, Diet Coke, The Coca-Cola Company, Tiffin Sandwiches</t>
+          <t>la Hollandaise</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>diet coke 500ml</t>
+          <t>Cheddar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Beverages, Carbonated drinks, Artificially sweetened beverages, Sodas, Diet beverages, Colas, Diet sodas, Unsweetened beverages, Diet cola soft drink, Sweetened beverages</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cow cheeses, Cheeses from the United Kingdom, Cheeses from England, Cheddar cheese, en:cheddar-slices</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>500 ml</t>
+          <t>24 336g</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>France, United Kingdom, en:india</t>
+          <t>Morocco, en:united-states</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -796,32 +796,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>coke</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Danone</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Diet Coke</t>
+          <t>Assil</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Boissons,Boissons gazeuses,Boissons édulcorées,Sodas,Boissons light,Sodas au cola,Sodas light,Sodas au cola light</t>
+          <t>Dairies,Fermented foods,Fermented milk products,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>355 ml</t>
+          <t>110 g</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Royaume-Uni,États-Unis</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -836,37 +836,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>coke</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Coca-Cola,Coke</t>
+          <t>Salim</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sabor Original</t>
+          <t>Salim</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>en:Beverages and beverages preparations,Bebidas,Bebidas carbonatadas,Sodas,Colas,Bebidas adoçadas</t>
+          <t>Dairies,Milks</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>330 ml</t>
+          <t>1 l</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -876,37 +876,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Jaouda</t>
+          <t>Kirkland Signature</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Perly</t>
+          <t>Low Moisture Part Skim Shredded Mozzarella Cheese</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts,Cream cheeses,fr:Fromages-frais-sucres</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Grated cheese, Grated Mozzarella</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>85 g</t>
+          <t>2.5 lb</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Morocco,United States</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -916,37 +916,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jaouda</t>
+          <t>Saputo Cheese Usa Inc.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lait</t>
+          <t>Cheese heads low moisture part skim mozzarella</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dairies,Meals,Milks (liquid and powder),Milks,Semi-skimmed milks</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>450 ml</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -956,37 +956,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MILKY FOOD PROFESSIONAL</t>
+          <t>Saputo Cheese Usa Inc.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fromage blanc nature</t>
+          <t>String, low moisture part skim mozzarella cheese</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Desserts,Dairy desserts,Fermented dairy desserts,Fromages blancs - petit suisses and skyr,Plain fermented dairy desserts,fr:Fromages blancs,fr:Fromages blancs natures</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -996,37 +996,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jaouda</t>
+          <t>NGD</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>uht jaouda 1L</t>
+          <t>Skinny Cappuccino Capsules Of Roast &amp; Ground Coffee And Skim Milk Powder, Skinny Cappuccino</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dairies,Milks,Homogenized milks,UHT Milks,Whole milks,Cow milks,Whole milk UHT</t>
+          <t>Alimentos y bebidas de origen vegetal, Bebidas, Alimentos de origen vegetal, Bebidas para tomar calientes, Cafés, Bebidas instantáneas, en:Capsules, Cafés solubles, Capsulas de cafe, Cappucino en polvo, Beverages and beverages preparations, Dried products, Dried products to be rehydrated, Dehydrated beverages</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1L</t>
+          <t>7 g</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo,Mauritania,Morocco,United States</t>
+          <t>Francia,México, World</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -1036,37 +1036,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jaouda</t>
+          <t>Fairlife</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jben</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>en:Dairies, en:Fermented foods, en:Fermented milk products, en:Spreads, en:Cheeses, en:Salted spreads, en:Cheese spreads, en:Fromage frais nature à 21%de matière grasse</t>
+          <t>en:milk</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>160g</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Maroc,en:morocco</t>
+          <t>en:ca</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -1076,37 +1076,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Marmite,Unilever</t>
+          <t>Lactaid,  Akpharma Inc.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Marmite Yeast Extract</t>
+          <t>Lactose-free skim milk</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dairies, Fermented foods, Fermented milk products, Buttermilks, en:yeast-extract-spreads</t>
+          <t>Dairies, Milks</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>France,Allemagne,Irlande,Italie,Pays-Bas,Espagne,Royaume-Uni,États-Unis</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -1116,32 +1116,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>centrale danone</t>
+          <t>Coles</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lait Frais</t>
+          <t>Skim milk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dairies, Milks, Fresh milks, en:semi-skimmed-milks</t>
+          <t>Dairies, Milks, Skimmed milks</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>470 ml</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>en:Morocco</t>
+          <t>en:au</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1156,37 +1156,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>la Hollandaise</t>
+          <t>Natrel</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cheddar</t>
+          <t>Lactose Free 0% Skim Milk</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cow cheeses, Cheeses from the United Kingdom, Cheeses from England, Cheddar cheese, en:cheddar-slices</t>
+          <t>Dairies, Milks, Lactose-free milk</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>24 336g</t>
+          <t>2 L</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Morocco, en:united-states</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -1196,37 +1196,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Danone</t>
+          <t>Dairyland</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Assil</t>
+          <t>0% Fat-Free Skim Milk</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dairies,Fermented foods,Fermented milk products,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts</t>
+          <t>en:milks</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>110 g</t>
+          <t>4l</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -1236,32 +1236,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Skim Milk</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Salim</t>
+          <t>Woolworths</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Salim</t>
+          <t>Australian skim milk</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dairies,Milks</t>
+          <t>Dairies, Milks</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1 l</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>au</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1276,37 +1276,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>Almond Milk</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jason’s</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Sourdough White Ciabattin Bread</t>
-        </is>
-      </c>
+          <t>Maruja</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Cereals and potatoes,Breads,White breads,Sourdough-bread</t>
+          <t>Snacks,Sweet snacks,Cocoa and its products,Confectioneries,Chocolates,Compound chocolates,Food</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>580 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ireland,United Kingdom,United States</t>
+          <t>Algeria,Cameroon,France,Morocco,Spain</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -1316,32 +1312,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>Almond Milk</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Jason’s</t>
+          <t>BjORG</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>White Sourdough Bread</t>
+          <t>BjORG AMANDE ALMOND SANS SUGRES- NO SUGAR</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sourdough-bread, en:breads</t>
+          <t>Plant-based foods and beverages, Beverages, Plant-based foods, Dairy substitutes, Milk substitutes, Nuts and their products, Plant-based beverages, Plant-based milk alternatives, Nut-based drinks, Almond-based drinks, Unsweetened plain almond-based drinks</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>450 g</t>
+          <t>1 l</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>en:gb</t>
+          <t>Belgique,Côte d'Ivoire,France,Polynésie française,Guadeloupe,Martinique,Maroc,Nouvelle-Calédonie,La Réunion,Suisse,Royaume-Uni</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1356,37 +1352,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>Almond Milk</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jason's</t>
+          <t>Tobler</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sourdough Grains &amp; Seeds</t>
+          <t>Toblerone</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Cereals and potatoes,Breads,Sliced breads,Vegan,Vegetarian</t>
+          <t>Botanas,Snacks dulces,Cacao y sus productos,Dulces,Dulces de chocolate,Chocolates,Chocolates con leche,Chocolates con almendras,en:Flavoured chocolates,en:Flavoured milk chocolates,Barra de chocolate con leche y nougat,en:Swiss chocolates</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>580 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gb</t>
+          <t>Argelia,Australia,Bélgica,Bolivia,Bulgaria,Dinamarca,Finlandia,Francia,Alemania,Italia,Marruecos,Noruega,Polonia,Rumania,España,Suecia,Suiza,Tailandia,Ucrania,Reino Unido</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -1396,32 +1392,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>Almond Milk</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La Boulangère</t>
+          <t>plenish</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pain de mie grandes tranches Seigle &amp; Graines 500g</t>
+          <t>Organic Almond milk</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Cereals and potatoes,Seeds,Cereals and their products,Cereal grains,Breads,Secale,Sliced breads,Rye,Rye breads</t>
+          <t>Plant-based foods and beverages, Beverages, Plant-based foods, Dairy substitutes, Milk substitutes, Nuts and their products, Plant-based beverages, Plant-based milk alternatives, Nut-based drinks, Almond-based drinks</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>France, en:united-kingdom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1436,32 +1432,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>Almond Milk</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JASON'S</t>
+          <t>Acti Leaf</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>JASON'S SOURDOUGH 97 SUPERB SPROUTED GRAINS</t>
+          <t>Almond No Sugars</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Cereals and potatoes,Breads,sourdough bread</t>
+          <t>Plant-based foods and beverages,Beverages,Plant-based foods,Dairy substitutes,Milk substitutes,Nuts and their products,Plant-based beverages,Plant-based milk alternatives,Nut-based drinks,Unsweetened beverages,Almond-based drinks</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>450 g</t>
+          <t>1 litre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>United Kingdom, United States, en:ireland</t>
+          <t>Ireland,United Kingdom,United States</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1476,37 +1472,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>Almond Milk</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wasa</t>
+          <t>Lindt Excellence</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FIBRES</t>
+          <t>ORANGE INTENSE FONDENTE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Cereals and potatoes,Cereals and their products,Breads,Crispbreads,Crispbreads(wholemeal)</t>
+          <t>Botanas,Snacks dulces,Cacao y sus productos,Chocolates,Chocolates con leche,Chocolates con almendras,en:Flavoured chocolates,en:Flavoured milk chocolates,en:Milk chocolate bar,Chocalte con leche almendrado</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>230 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Belgium,France,Guadeloupe,Italy,Réunion,Spain,Switzerland</t>
+          <t>Austria,Bélgica,Bolivia,República Checa,Dinamarca,Estonia,Francia,Hungría,Italia,Marruecos,Países Bajos,Polonia,España,Suiza,Tailandia,Reino Unido</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -1516,37 +1512,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>Almond Milk</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Milbona, Vemondo</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Krisprolls complets sans sucres ajoutés</t>
+          <t>Bio Organic Almond Drink</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Cereals and potatoes,Cereals and their products,Breads,Toasts,Toasted bread rolls</t>
+          <t>Beverages and beverages preparations, Plant-based foods and beverages, Beverages, Plant-based foods, Dairy substitutes, Milk substitutes, Nuts and their products, Plant-based beverages, Plant-based milk alternatives, Nut-based drinks, Almond-based drinks</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>425 g</t>
+          <t>1 l</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium, Czech Republic, Germany, Italy, Romania, en:bulgaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -1556,32 +1552,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>Almond Milk</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jacquet</t>
+          <t>Lidl</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14 Maxi Tranches complet sans sucres ajoutés</t>
+          <t>unsweetened Almond milk</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Cereals and potatoes,Cereals and their products,Breads,Sliced breads,Wholemeal breads,Wholemeal sliced breads</t>
+          <t>Plant-based foods and beverages, Beverages, Dairy substitutes, Milk substitutes, Plant-based beverages, Plant-based milk alternatives, en:almond-milks</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>550 g</t>
+          <t>1L</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>France,Switzerland,Suisse</t>
+          <t>Belgium, en:united-kingdom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1596,37 +1592,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>Almond Milk</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ryvita</t>
+          <t>Blue Diamond Almonds</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Dark Rye Crispbread</t>
+          <t>Almond Breeze Unsweetened Low Fat Milk Alternative</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Cereals and potatoes,Breads,Crispbreads,Rye breads</t>
+          <t>Beverages and beverages preparations,Plant-based foods and beverages,Beverages,Plant-based foods,Dairy substitutes,Milk substitutes,Nuts and their products,Plant-based beverages,Plant-based milk alternatives,Nut-based drinks,Almond-based drinks</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>1 L</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ireland,United Kingdom</t>
+          <t>France,United Kingdom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -1636,37 +1632,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>Almond Milk</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ekibio,Le pain des Fleurs</t>
+          <t>Blue diamond almonds</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tartines craquantes au sarrasin imp</t>
+          <t>Almond breeze</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Snacks,Cereals and potatoes,Breads,Extruded crispbreads,Crispbreads</t>
+          <t>Alimentos y bebidas de origen vegetal, Bebidas, Alimentos de origen vegetal, en:Dairy substitutes, Sustitutos de la leche, Frutos de cáscara y derivados, Bebidas de origen vegetal, Bebidas vegetales, Leches de frutos de cáscara, Leches de almendras</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>160 g</t>
+          <t>1 l</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Belgium,France,Luxembourg,Netherlands,Senegal,Switzerland</t>
+          <t>Spain, en:morocco</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -1676,37 +1672,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Soy Milk</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sidi Ali</t>
+          <t>Oatly</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sidi Ali</t>
+          <t>Oat Drink Barista Edition</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Beverages and beverages preparations,Beverages,Waters,Spring waters,Mineral waters,Unsweetened beverages,Natural mineral waters</t>
+          <t>Beverages and beverages preparations, Plant-based foods and beverages, Beverages, Plant-based foods, Cereals and potatoes, Dairy substitutes, Cereals and their products, Milk substitutes, Plant-based beverages, Plant-based milk alternatives, Cereal-based drinks, Oat-based drinks</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>33 cl</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>An Fhraing,A' Ghearmailt,Poblachd na h-Èireann,An Rìoghachd Aonaichte</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -1716,37 +1712,33 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Soy Milk</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sidi ali</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Sidi Ali</t>
-        </is>
-      </c>
+          <t>Snickers</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Beverages and beverages preparations,Beverages,Waters,Spring waters,Mineral waters,Natural mineral waters</t>
+          <t>Lanches comida,Lanches doces,Cacau e derivados,Confeitaria,Barras,Bombons de chocolate,Barras de chocolate,Barras de chocolate caramelo</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2 L</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Argélia,Bélgica,Bulgária,Chipre,Dinamarca,França,Alemanha,Hungria,Luxemburgo,México,Marrocos,Países Baixos,Polónia,Portugal,Roménia,Arábia Saudita,Sérvia,Singapura,Espanha,Suécia,Suíça,Reino Unido,Estados Unidos</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -1756,37 +1748,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Soy Milk</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Les Eaux Minérales d'oulmès,Sidi Ali</t>
+          <t>The Coconut Collab</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Eau minérale naturelle</t>
+          <t>Fermented Coconut Yoghurt Alternative</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Beverages and beverages preparations,Beverages,Waters,Spring waters,Mineral waters,Unsweetened beverages,Natural mineral waters</t>
+          <t>Plant-based foods and beverages,Fermented foods,Dairy substitutes,Non-dairy fermented foods,Non-dairy yogurts,Yogurts,Coconut yogurts,Coconutmilk yogurts</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1,5 L</t>
+          <t>350 g</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Finland, France, United Kingdom, en:ireland</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -1796,37 +1788,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Soy Milk</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cristaline</t>
+          <t>Oatly</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Eau De Source</t>
+          <t>Organic oat drink</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Beverages and beverages preparations,Beverages,Waters,Spring waters,Mineral waters,Unsweetened beverages,Natural mineral waters</t>
+          <t>Plant-based foods and beverages, Beverages, Plant-based foods, Cereals and potatoes, Dairy substitutes, Cereals and their products, Milk substitutes, Plant-based beverages, Plant-based milk alternatives, Cereal-based drinks, Unsweetened beverages, Oat-based drinks</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1500 ml</t>
+          <t>1 l</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Belgium,Côte d'Ivoire,France,Germany,Guadeloupe,Italy,Luxembourg,Mali,Martinique,New Caledonia,Switzerland,United Kingdom</t>
+          <t>Francie,Spojené království,Česko</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -1836,32 +1828,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Soy Milk</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ain atlas</t>
+          <t>Alpro, Danone</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Eau minéral naturelle</t>
+          <t>Alpro Plain</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Beverages,Waters,Spring waters,Mineral waters,Natural mineral waters</t>
+          <t>Plant-based foods and beverages,Fermented foods,Plant-based foods,Dairy substitutes,Desserts,Non-dairy desserts,Non-dairy fermented foods,Non-dairy yogurts,Soy milk yogurts,Plain soy yogurts</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>33cl</t>
+          <t>100 gram</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Belgium, Czech Republic, Estonia, Finland, Netherlands, Norway, Poland, Slovakia, United Kingdom, en:ireland</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1876,37 +1868,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Soy Milk</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Les eaux minérales d'Oulmès S.A.</t>
+          <t>minor figures</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Oulmes natural carbonated water</t>
+          <t>Oat M*lk</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Boissons,Boissons gazeuses,Eaux,Eaux de sources,Eaux minérales,Eaux gazeuses,Eaux minérales naturelles,Eaux minérales gazeuses</t>
+          <t>Beverages and beverages preparations,Plant-based foods and beverages,Beverages,Plant-based foods,Cereals and potatoes,Dairy substitutes,Cereals and their products,Milk substitutes,Plant-based beverages,Plant-based milk alternatives,Cereal-based drinks,Oat-based drinks</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1L</t>
+          <t>1 litre</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Maroc</t>
+          <t>France,Ireland,United Kingdom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -1916,37 +1908,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Soy Milk</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Oulmès</t>
+          <t>The Grower's Harvest</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Oulmes Eau Gazeuse</t>
+          <t>Soya Drink Unsweetened</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Carbonated mineral waters</t>
+          <t>Plant-based foods and beverages,Beverages,Plant-based foods,Legumes and their products,Dairy substitutes,Milk substitutes,Plant-based beverages,Plant-based milk alternatives,Legume-based drinks,Soy-based drinks</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>50cl</t>
+          <t>1 l</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -1956,37 +1948,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Soy Milk</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Volvic</t>
+          <t>Hacendado</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Eau Minérale Naturelle</t>
+          <t>Bebida de soja</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>beverages-and-beverages-preparations, beverages, waters, spring-waters, mineral-waters, natural-mineral-waters, getränke, de:mineralwasser, natürliches-mineralwasser, de:quellwasser, de:wasser</t>
+          <t>Plant-based foods and beverages,Beverages,Plant-based foods,Legumes and their products,Dairy substitutes,Milk substitutes,Plant-based beverages,Plant-based milk alternatives,Legume-based drinks,Soy-based drinks,Unsweetened plain soy-based drinks</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1,5 L</t>
+          <t>1 l</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>France, Luxembourg, Belgien, Deutschland, Frankreich, Schweiz, en:belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1988,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Soy Milk</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>سلطان</t>
+          <t>Sojade</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Aïn Soltane</t>
+          <t>So soja à la grecque nature</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Beverages and beverages preparations,Plant-based foods and beverages,Beverages,Plant-based foods,Fruits and vegetables based foods,Fruits based foods,Fruits,Waters,Spring waters,Mineral waters,Unsweetened beverages,Natural mineral waters,Non-carbonated natural mineral waters</t>
+          <t>Plant-based foods and beverages, Fermented foods, Dairy substitutes, Desserts, Vegan products, Non-dairy desserts, Non-dairy fermented foods, Non-dairy yogurts, Soy milk yogurts, Plain soy yogurts, en:yogurts</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>33 cl</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Belgium, Czech Republic, France, en:united-kingdom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2036,37 +2028,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Soy Milk</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nestlé,Nestlé Waters,San Pellegrino</t>
+          <t>Sojasun</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>S. Pellegrino Water</t>
+          <t>Soja myrtille</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bevande e preparati per bevande,Bevande,Bevande effervescente,Acque,Acque di sorgente,Acque minerali,Acque frizzanti,Acque minerali naturali,Acqua minerale frizzante,Acque minerali naturali carbonate,en:Boissons-sans-sucre-ajoute</t>
+          <t>Plant-based foods and beverages,Fermented foods,Dairy substitutes,Desserts,Non-dairy desserts,Non-dairy fermented foods,Non-dairy yogurts,Soy milk yogurts,Fruit soy yogurts,Soy desserts,Blueberry soy yogurts</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1 L</t>
+          <t>4×100 g</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Belgio,Francia,Italia,Lussemburgo,Paesi Bassi,Svizzera</t>
+          <t>France,French Polynesia,Switzerland</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -2076,37 +2068,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>The Tofoo Co.</t>
+          <t>La Boulangère</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tofoo Naked</t>
+          <t>Brioche Tranchée Bio 400g</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Legumes and their products,Meat alternatives,Meat analogues,Tofu,Plain tofu</t>
+          <t>Snacks,Breakfasts,Sweet snacks,Sweet pastries and pies,Viennoiseries,Brioches,Pure butter brioche,fr:Brioches tranchées</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>United Kingdom, en:ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -2116,32 +2108,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SODEBO</t>
+          <t>Hellmann's</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Salade &amp; Compagnie Manhattan Poulet Roti</t>
+          <t>Mayonnaise</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Meals,Pasta dishes,Prepared salads,Meals with meat,Pasta salads,Poultry meals,Salads with meat,Meals with chicken,Pasta salad with meat,Pasta salad with chicken</t>
+          <t>Condiments,Sauces,Mayonnaises,en:groceries,Matières grasses</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>320g</t>
+          <t>750 ml / 705 g, approx. 50 portions</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>France,Ireland,United Kingdom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2156,37 +2148,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>co op</t>
+          <t>Heinz</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>meat feast pizza</t>
+          <t>Seriously Good Times Mayonnaise</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Meals with meat</t>
+          <t>Condiments, Sauces, Mayonnaises, Groceries</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>380 g</t>
+          <t>775 g</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Ireland,United Kingdom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -2196,37 +2188,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cauldron</t>
+          <t>Stokes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Middle Eastern Plant-Based Falafels</t>
+          <t>Real Mayonnaise</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Meat alternatives,Refrigerated foods,Refrigerated plant-based foods,Vegetarian balls,Falafels,Refrigerated falafel</t>
+          <t>Condiments, Sauces, Mayonnaises, Groceries</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>345g</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>France,Spain,United Kingdom</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -2236,37 +2228,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Heck!</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Pork Sausages</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Meats and their products, Meats, Prepared meats, Sausages, Pork sausages</t>
+          <t>Plant-based foods and beverages, Plant-based foods, Snacks, Cereals and potatoes, Sweet snacks, Cocoa and its products, Confectioneries, Chocolate candies, Breads, Rusks, Rusk with eggs, en:chocolates</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>France, en:united-kingdom</t>
+          <t>en:Morocco</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -2276,37 +2268,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Céréal Bio</t>
+          <t>Sharwood's,Premier Foods</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Les Galettes Boulgour &amp; Quinoa - Tomate &amp; Paprika</t>
+          <t>Medium Egg Noodles imp</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages, Plant-based foods, Meat alternatives, Vegetarian patties, Cereals and vegetables patties</t>
+          <t>Plant-based foods and beverages,Plant-based foods,Pastas,Noodles</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>200 g (2 x 100 g)</t>
+          <t>226g</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>en:united-kingdom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -2316,37 +2308,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Herta, Knacki</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HERTA Knacki Veggie Saucisses végétales x6 -210g</t>
+          <t>Petites Madeleines</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages, Plant-based foods, Meals, Meats and their products, Fresh foods, Prepared meats, Meat alternatives, Sausages, Meat analogues, Fresh meals, Vegetarian sausages, en:vegetarian-hot-dog-sausages</t>
+          <t>Snacks, Desserts, Snacks sucrés, Biscuits et gâteaux, Gâteaux, Madeleines, Madeleines natures</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>210 g</t>
+          <t>1 kg (57 unités)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>France, en:reunion</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -2356,37 +2348,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fleury  Michon</t>
+          <t>Hacendado</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Blanc de Poulet</t>
+          <t>Havarti light</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Meats and their products,Meats,Chicken and its products,Poultries,Chickens,Charcuterie-de-volaille,Viande</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cow cheeses, Danish cheeses, Havarti, es:Queso Havarti</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>160 g</t>
+          <t>12 lonchas</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>España</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -2396,37 +2388,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Naked</t>
+          <t>Hacendado</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>No Artificial Additives 6 Pork Sausages</t>
+          <t>Queso  (творожный сыр light)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Meats and their products,Meats,Prepared meats,Sausages,Pork sausages</t>
+          <t>Dairies, Fermented foods, Breakfasts, Fermented milk products, Spreads, Cheeses, Salted spreads, Sweet spreads, fr:Pâtes à tartiner, Cheese spreads</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6 sausages 400g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>España</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -2436,37 +2428,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The Tofoo Co.</t>
+          <t>la boulangère</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Smoked Tofu</t>
+          <t>10 Pains au lait frais sans sucres ajoutés 350g</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages, Plant-based foods, Legumes and their products, Meat alternatives, Meat analogues, Tofu, Smoked tofu</t>
+          <t>Snacks, Snacks sucrés, Viennoiseries, Pains au lait</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>350 g</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>United Kingdom, en:ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -2476,37 +2468,33 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bimo</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Tonik</t>
-        </is>
-      </c>
+          <t>lilia</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Snacks,Cereals and potatoes,Sweet snacks,Biscuits and cakes,Biscuits and crackers,Cereals and their products,Cocoa and its products,Confectioneries,Flours,Biscuits,Cereal flours,Chocolate candies,Sweeteners,Wheat flours,Sugars,fr:Gaufrettes-fourrees-au-cacao</t>
+          <t>Plant-based foods and beverages,Dairies,Plant-based foods,Fats,Spreads,Plant-based spreads,Salted spreads,Vegetable fats,Spreadable fats,Animal fats,Dairy spreads,Margarines,Milkfat,Butters</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>22 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Morocco,United States</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -2516,32 +2504,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>J.D. Gross</t>
+          <t>Lurpak</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Dark Chocolate 85% Cocoa</t>
+          <t>Spreadable Slightly Salted</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Snacks,Sweet snacks,Cocoa and its products,Chocolates,Dark chocolates</t>
+          <t>Dairies,Fats,Spreads,Spreadable fats,Animal fats,Dairy spreads,Milkfat,Butters</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>125g</t>
+          <t>400g</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Austria,Belgium,Bulgaria,Estonia,Finland,France,Germany,Italy,Lithuania,Slovakia,Slovenia,Spain,United Kingdom</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2556,33 +2544,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>chocolate</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Ferrero,Nutella</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>Butter</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Familia 200g</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Pequenos alomoços,Produtos para barrar,Doces para barrar,fr:Pâtes à tartiner,Creme para barrar de avelã,Creme para barrar de chocolate,Creme para barrar de avelã e cacau</t>
+          <t>Aliments et boissons à base de végétaux, Produits laitiers, Aliments d'origine végétale, Matières grasses, Produits à tartiner, Pâtes à tartiner végétales, Matières grasses à tartiner, Matières grasses végétales, Matières grasses animales, Matière grasse laitière, en:dairy-spread, Margarines, Beurres</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>350 g</t>
+          <t>1920 unit</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>República Checa,Dinamarca,Estónia,Finlândia,França,Alemanha,Itália,Letónia,Lituânia,Noruega,Polónia,Portugal,Espanha,Suécia,Reino Unido</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -2592,33 +2580,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nutella,Ferrero</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>Bjorg</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Fourrés Chocolat Noir</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Alimentos e bebidas à base de plantas,Alimentos à base de plantas,Pequenos alomoços,Produtos para barrar,Produtos para barrar à base de plantas,Doces para barrar,fr:Pâtes à tartiner,Creme para barrar de avelã,Creme para barrar de chocolate,Creme para barrar de avelã e cacau</t>
+          <t>Snacks, Sweet snacks, Biscuits and cakes, Biscuits and crackers, Biscuits, Chocolate biscuits, Filled biscuits, Dark chocolate biscuits, Sandwich biscuits</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>225 g</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Áustria,Bélgica,Bulgária,França,Alemanha,Hungria,Itália,Marrocos,Portugal,Roménia,Espanha,Suíça,Reino Unido</t>
+          <t>France,Luxembourg,Switzerland</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -2628,28 +2620,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Maruja</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>fin CARRÉ</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NOIR INTENSE 74% CACAO</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Snacks,Sweet snacks,Cocoa and its products,Confectioneries,Chocolates,Compound chocolates,Food</t>
+          <t>snacks, sweet-snacks, cocoa-and-its-products, chocolates, dark-chocolates, cacao-et-derives, fr:chocolats, fr:chocolats-noirs, fr:chocolats-noirs-extra-fin</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>100 g ℮</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Algeria,Cameroon,France,Morocco,Spain</t>
+          <t>Bélgica,Bulgaria,República Checa,Finlandia,Alemania,Países Bajos,Polonia,España</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2664,37 +2660,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Green &amp; Black's</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Organic 70% Dark Chocolate Bar</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Snacks,Snacks sucrés,Cacao et dérivés,Chocolats,Chocolats noirs,Chocolat noir en tablette extra dégustation à 70% de cacao minimum</t>
+          <t>Plant-based foods and beverages, Dairies, Plant-based foods, Fats, Spreads, Plant-based spreads, Vegetable fats, Spreadable fats, Animal fats, Dairy spreads, Margarines, Milkfat, Butters, en:salted-spreads</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>90g</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>France,Irlande,Suède,Royaume-Uni</t>
+          <t>en:Morocco</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -2704,32 +2700,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Elle &amp; Vire, Savencia</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Pâte à tartiner noisettes et cacao</t>
+          <t>Le Beurre Tendre Doux</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Breakfasts,Spreads,Sweet spreads,fr:Pâtes à tartiner,Hazelnut spreads,Chocolate spreads,Cocoa and hazelnuts spreads</t>
+          <t>Dairies, Fats, Spreads, Spreadable fats, Animal fats, Milkfat, Dairy-spread, Butters, Unsalted butters, Sweet cream butters, Butter-82-fat-unsalted-easy-to-spread, fr:Beurres tendres</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>360 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada,France,Suisse,États-Unis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2744,37 +2740,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Green and black</t>
+          <t>Nestlé</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Dark chocolate</t>
+          <t>Nestlé Dessert</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Snacks,Snacks sucrés,Cacao et dérivés,Confiseries,Confiseries chocolatées,Chocolats,Chocolats noirs</t>
+          <t>Snacks, Desserts, Sweet snacks, Cocoa and its products, Chocolates, Dark chocolates, Dark chocolate bar, Dark chocolate bar for cooking with more than 40% cocoa</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>90g</t>
+          <t>205g</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Belgium, France, United Kingdom, en:ireland</t>
+          <t>Belgium,France,Germany,Réunion,Switzerland</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -2784,37 +2780,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bjorg</t>
+          <t>La Boulangère</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Fourrés Chocolat Noir</t>
+          <t>Brioche Tranchée Bio 400g</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Snacks, Sweet snacks, Biscuits and cakes, Biscuits and crackers, Biscuits, Chocolate biscuits, Filled biscuits, Dark chocolate biscuits, Sandwich biscuits</t>
+          <t>Snacks,Breakfasts,Sweet snacks,Sweet pastries and pies,Viennoiseries,Brioches,Pure butter brioche,fr:Brioches tranchées</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>France,Luxembourg,Switzerland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -2824,32 +2820,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>fin CARRÉ</t>
+          <t>La Fournée Dorée</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NOIR INTENSE 74% CACAO</t>
+          <t>La gâche tranchée</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>snacks, sweet-snacks, cocoa-and-its-products, chocolates, dark-chocolates, cacao-et-derives, fr:chocolats, fr:chocolats-noirs, fr:chocolats-noirs-extra-fin</t>
+          <t>Snacks,Sweet snacks,Sweet pastries and pies,Viennoiseries,Brioches</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>100 g ℮</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bélgica,Bulgaria,República Checa,Finlandia,Alemania,Países Bajos,Polonia,España</t>
+          <t>France,Germany,Switzerland</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2864,37 +2860,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>hazelnut</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Jaouda</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Pâte à tartiner noisettes et cacao</t>
+          <t>Perly</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Breakfasts,Spreads,Sweet spreads,fr:Pâtes à tartiner,Hazelnut spreads,Chocolate spreads,Cocoa and hazelnuts spreads</t>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts,Cream cheeses,fr:Fromages-frais-sucres</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>360 g</t>
+          <t>85 g</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Morocco,United States</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -2904,37 +2900,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>hazelnut</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Poulain</t>
+          <t>MILKY FOOD PROFESSIONAL</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>poulain</t>
+          <t>Fromage blanc nature</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Breakfasts,Spreads,Sweet spreads,fr:Pâtes à tartiner,Hazelnut spreads,Chocolate spreads</t>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Desserts,Dairy desserts,Fermented dairy desserts,Fromages blancs - petit suisses and skyr,Plain fermented dairy desserts,fr:Fromages blancs,fr:Fromages blancs natures</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Algeria,France,Morocco,Switzerland,United Kingdom</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -2944,37 +2940,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>hazelnut</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ferrero</t>
+          <t>Jaouda</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>nutella</t>
+          <t>Jben</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Snacks,Breakfasts,Spreads,Sweet spreads,fr:Pâtes à tartiner,Hazelnut spreads,Chocolate spreads,Cocoa and hazelnuts spreads</t>
+          <t>en:Dairies, en:Fermented foods, en:Fermented milk products, en:Spreads, en:Cheeses, en:Salted spreads, en:Cheese spreads, en:Fromage frais nature à 21%de matière grasse</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>750g</t>
+          <t>160g</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Austria, Belgium, Bulgaria, France, Hungary, Ireland, Montenegro, Morocco, Réunion, Romania, Senegal, Serbia, Spain, Switzerland, Tunisia, Turkey, United Kingdom, Germany</t>
+          <t>Maroc,en:morocco</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -2984,37 +2980,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>hazelnut</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ferrero</t>
+          <t>la Hollandaise</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Nutella</t>
+          <t>Cheddar</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Breakfasts,Spreads,Sweet spreads,Bread coverings,fr:Pâtes à tartiner,Hazelnut spreads,Chocolate spreads,Cocoa and hazelnuts spreads</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cow cheeses, Cheeses from the United Kingdom, Cheeses from England, Cheddar cheese, en:cheddar-slices</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>450 g</t>
+          <t>24 336g</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Finland,France,Germany,Hungary,Morocco,Netherlands,Switzerland</t>
+          <t>Morocco, en:united-states</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3024,37 +3020,37 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>hazelnut</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ferrero, Nutella</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Nutella</t>
+          <t>Cream cheese</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Breakfasts,Spreads,Sweet spreads,fr:Pâtes à tartiner,Hazelnut spreads,Chocolate spreads,Cocoa and hazelnuts spreads</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cream cheeses</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>600 g</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Algeria,Czech Republic,Italy,Morocco,Poland,Spain</t>
+          <t>en:Morocco</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -3064,37 +3060,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>hazelnut</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Kinder,Kinder Bueno</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2 Bars Milk and Hazelnuts</t>
-        </is>
-      </c>
+          <t>Gervais</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>candy chocolate bars</t>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Desserts,Dairy desserts,Fermented dairy desserts,Fromages blancs - petit suisses and skyr,Plain fermented dairy desserts,Fresh cheeses,fr:Fromages blancs,fr:Fromages blancs natures</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>43 g (2 x 21,5 g)</t>
+          <t>80g</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Australia,Belgium,Estonia,France,Greece,Hungary,Ireland,Italy,Latvia,Lithuania,Morocco,New Zealand,Poland,Portugal,Romania,Spain,Switzerland,United Kingdom</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -3104,33 +3096,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>hazelnut</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Nutella,Ferrero</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>Yoplait</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Skyr nature 0%</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Lanches comida,Pequenos alomoços,Produtos para barrar,Lanches doces,Doces para barrar,fr:Pâtes à tartiner,Creme para barrar de avelã,Creme para barrar de chocolate,Creme para barrar de avelã e cacau</t>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Desserts,Dairy desserts,Fermented dairy desserts,Fromages blancs - petit suisses and skyr,Plain fermented dairy desserts,Skyrs,Plain skyrs</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>850 g</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Croácia,França,Hungria,Kuwait,Líbano,Portugal,Roménia,Espanha,Turquia</t>
+          <t>France,Ireland,United Kingdom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -3140,37 +3136,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>hazelnut</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ferrero</t>
+          <t>Centrale, Danone, Jebli</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Nutella</t>
+          <t>Jebli</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Breakfasts, Spreads, Festive foods, Sweet spreads, Christmas foods and drinks, fr:Pâtes à tartiner, Hazelnut spreads, Chocolate spreads, Cocoa and hazelnuts spreads</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1000g</t>
-        </is>
-      </c>
+          <t>منتجات`الألبان, الأطعمة المخمرة, en:Fermented milk products, en:Spreads, جبن, en:Salted spreads, en:Cheese spreads, en:Cream cheeses</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Austria,Belgium,Bulgaria,Czech Republic,France,Germany,Hungary,Morocco,Romania,Spain,Sweden,Switzerland</t>
+          <t>France,Maroc,en:morocco</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3180,37 +3172,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>hazelnut</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nakd</t>
+          <t>Mondelez International</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Protein Cocoa Hazelnut Bars</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Aliments et boissons à base de végétaux,Aliments d'origine végétale,Snacks,Snacks sucrés,Fruits à coques et dérivés,Barres,Barres de céréales,Compléments alimentaires,Compléments pour le Bodybuilding,Barres de céréales au chocolat,Barres de fruits à coques,Barre de céréales au chocolat renforcée en vitamines et minéraux,Barres énergétiques,Barres protéinées,en:barres-de-cereales,en:barres-de-fruits-noix,Barres aux fruits</t>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Spreads,Salted spreads,Cheese spreads,Cream cheeses</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>135 g</t>
+          <t>165g</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>France, Spain, United Kingdom, en:belgium</t>
+          <t>Ireland,United Kingdom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3220,27 +3212,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>hazelnut</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>dulcetto</t>
+          <t>Ideal</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Pâte a tartiner</t>
+          <t>Tranches Au Goût Cheddar</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Breakfasts, Spreads, Sweet spreads, fr:Pâtes à tartiner, Hazelnut spreads, en:chocolate-spreads</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, ar:منتاجات الالبان, en:melted-cheese</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>450g</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3260,37 +3252,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>Cheddar Cheese</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Barilla, BARILLA NORGE AS</t>
+          <t>la Hollandaise</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Spaghetti No: 5</t>
+          <t>Cheddar</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Alimentos y bebidas de origen vegetal,Alimentos de origen vegetal,Cereales y patatas,Cereales y derivados,Pastas alimenticias,en:Cereal pastas,Pasta seca,Pasta de trigo duro,Espaguetis,en:Dry durum wheat pasta,Espaguetis de trigo duro</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cow cheeses, Cheeses from the United Kingdom, Cheeses from England, Cheddar cheese, en:cheddar-slices</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>24 336g</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Australia,Austria,Belgium,Croatia,France,Germany,Greece,Ireland,Italy,Liechtenstein,Luxembourg,Mexico,Romania,Russia,Serbia,Spain,Sweden,Switzerland,Thailand,United States,United Kingdom</t>
+          <t>Morocco, en:united-states</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3300,37 +3292,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>Cheddar Cheese</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SODEBO</t>
+          <t>Ideal</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Salade &amp; Compagnie Manhattan Poulet Roti</t>
+          <t>Tranches Au Goût Cheddar</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Meals,Pasta dishes,Prepared salads,Meals with meat,Pasta salads,Poultry meals,Salads with meat,Meals with chicken,Pasta salad with meat,Pasta salad with chicken</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, ar:منتاجات الالبان, en:melted-cheese</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>320g</t>
+          <t>bilinmiyor</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>en:ma</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -3340,29 +3332,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>Cheddar Cheese</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>Cathedral City</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Mature Cheddar</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>en:Plant-based foods and beverages, en:Plant-based foods, en:Dried products, en:Pastas, en:Dried products to be rehydrated, en:Noodles, en:Instant noodles</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Cow cheeses,Cheeses from the United Kingdom,Cheeses from England,Cheddar cheese</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>350 g</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Morocco, en:tunisia</t>
+          <t>France,United Kingdom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3372,37 +3372,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>Cheddar Cheese</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Saclà</t>
+          <t>Cathedral City</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Pesto Classic Basil</t>
+          <t>Mature Cheddar</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Condiments, Sauces, Pasta sauces, Pestos, Green pestos</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cow cheeses, Cheeses from the United Kingdom, Cheeses from England, Cheddar cheese, Mature cheddar</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>190 gr</t>
+          <t>550 g</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Australia, France, United Kingdom, en:ireland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3412,37 +3412,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>Cheddar Cheese</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Barilla</t>
+          <t>Cathedral City</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Penne Rigate N°73</t>
+          <t>Extra Mature Cheddar</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Alimentos e bebidas à base de plantas,Alimentos à base de plantas,Cereais e Batatas,Cereais e seus produtos,Massa alimentícia,en:Cereal pastas,Massas secas,en:Durum wheat pasta,en:Dry durum wheat pasta,Penne,Penne Rigate</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cow cheeses, Cheeses from the United Kingdom, Cheeses from England, Cheddar cheese, Extra-mature cheddar</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>350 g</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Austrália,Áustria,Bélgica,Bulgária,República Checa,França,Alemanha,Itália,Japão,Portugal,Roménia,Espanha,Suíça</t>
+          <t>France,en:united-kingdom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3452,37 +3452,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>Cheddar Cheese</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Indomie</t>
+          <t>Cathedral City</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Nouilles instantanées goût poulet</t>
+          <t>Extra Mature Cheddar Cheese</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Pastas,Noodles,Aliments-d-origine-vegetale,Aliments-et-boissons-a-base-de-vegetaux,Pates-alimentaires,Instant noodles</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cow cheeses, Cheeses from the United Kingdom, Cheeses from England, Cheddar cheese, Extra-mature cheddar</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>70g</t>
+          <t>550 g</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Morocco,Tunisia,Qatar</t>
+          <t>France,Royaume-Uni</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3492,37 +3492,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>Cheddar Cheese</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Barilla,Barilla - Barilla G. e R. Fratelli - Società per Azioni - Via Mantova,Barilla Teigwaren</t>
+          <t>Jacob’s</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Pâtes spaghetti au blé complet integral 500g</t>
+          <t>Mini cheddars</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Pflanzliche Lebensmittel und Getränke,Pflanzliche Lebensmittel,Getreide und Kartoffeln,Getreideprodukte,Teigwaren,en:Cereal pastas,Getrocknete Teigwaren,Hartweizenteigwaren,Spaghettis,en:Whole durum wheat pasta,en:Dry durum wheat pasta,Hartweizenspaghetti,Vollkorn-Hartweizenspaghetti,Vollkorn Hartweizen</t>
+          <t>Snacks, Salty snacks, Appetizers, Cheese biscuits</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>6 pack 138g</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Österreich,Belgien,Brasilien,Bulgarien,Frankreich,Deutschland,Spanien,Schweiz,Vereinigtes Königreich</t>
+          <t>en:gb</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -3532,28 +3532,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>Cheddar Cheese</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lurpak</t>
+          <t>Mcvitie s</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Lurpak Spreadable Slightly Salted</t>
+          <t>Cheddars Original Biscuits</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Lácteos,Aceites y grasas,Untables,Grasas para untar,Grasas animales,La pasta de leche,Grasas de la leche,Mantequillas</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+          <t>Cheese biscuits, en:biscuits</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>150 g</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Francia,España,Reino Unido</t>
+          <t>France, en:united-kingdom</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3568,37 +3572,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>Cheddar Cheese</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Mutti, Oluf lorentzen as</t>
+          <t>Cathedral City</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Pastasaus m/Basilikum</t>
+          <t>Mature Lighter</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages, Plant-based foods, Fruits and vegetables based foods, Condiments, Vegetables based foods, Cooking helpers, Sauces, Tomatoes and their products, Meal sauces, Pasta sauces, Tomato sauces, Tomato sauces with basil</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cow cheeses, Cheeses from the United Kingdom, Cheeses from England, Cheddar cheese, Mature cheddar</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>350 g</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Belgium, France, Germany, Netherlands, en:united-kingdom</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3608,37 +3612,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>Cheddar Cheese</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Barilla</t>
+          <t>Tesco</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Lasagne all'uovo</t>
+          <t>Mature Cheddar, Strength 3</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Cibi e bevande a base vegetale, Cibi a base vegetale, Cereali e patate, Cereali e i loro prodotti, Pasta, Paste alimentari di cereali, Pasta secca, Pasta di grano duro, Paste all'uovo, Pasta al'uovo secca, en:Lasagna sheets, fr:Lasagnes à garnir aux œufs</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cow cheeses, Cheeses from the United Kingdom, Cheeses from England, Cheddar cheese, Mature cheddar</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Belgium,Canada,Croatia,France,Germany,Greece,Hungary,Italy,Luxembourg,Montenegro,Romania,Serbia,Slovenia,Spain,Switzerland,United Kingdom,Uruguay</t>
+          <t>en:united-kingdom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3648,37 +3652,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>almond</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Alesto,Lidl</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Almonds</t>
+          <t>GARDEN GOURMET Carré gourmand Tomates et mozzarella 160g</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Nuts and their products,Nuts,Almonds,Shelled nuts,Shelled almonds,Unsalted almonds</t>
+          <t>Aliments et boissons à base de végétaux,Aliments d'origine végétale,Plats préparés,Alternatives à la viande,Plats préparés d'origine végétale,Galettes végétariennes, Substituts de viande</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>160 g</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Belgium,Bulgaria,Czech Republic,France,Germany,Greece,Hungary,Poland,Portugal,Romania,Slovenia,Spain,Switzerland,United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
     </row>
@@ -3688,33 +3692,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>almond</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Maruja</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>Lidl</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Mozzarella</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Snacks,Sweet snacks,Cocoa and its products,Confectioneries,Chocolates,Compound chocolates,Food</t>
+          <t>Produits laitiers, Produits fermentés, Produits laitiers fermentés, Fromages, Fromages italiens, Fromages à pâte filée, Mozzarella</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>125 g (200 g ℮)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Algeria,Cameroon,France,Morocco,Spain</t>
+          <t>Belgique,Croatie,France,Allemagne,Espagne,Suède,Suisse,Finlande</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -3724,37 +3732,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>almond</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BjORG</t>
+          <t>HACENDADO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>BjORG AMANDE ALMOND SANS SUGRES- NO SUGAR</t>
+          <t>MOZZARELLA PIZZA-ROMA</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages, Beverages, Plant-based foods, Dairy substitutes, Milk substitutes, Nuts and their products, Plant-based beverages, Plant-based milk alternatives, Nut-based drinks, Almond-based drinks, Unsweetened plain almond-based drinks</t>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Cow cheeses,Italian cheeses,Stretched-curd cheeses,Mozzarella,Cow mozzarella</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1 l</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Belgique,Côte d'Ivoire,France,Polynésie française,Guadeloupe,Martinique,Maroc,Nouvelle-Calédonie,La Réunion,Suisse,Royaume-Uni</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -3764,37 +3772,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>almond</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tobler</t>
+          <t>Pizza Express</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Toblerone</t>
+          <t>Classic Margherita Mozzarella &amp; Tomato Pizza</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Botanas,Snacks dulces,Cacao y sus productos,Dulces,Dulces de chocolate,Chocolates,Chocolates con leche,Chocolates con almendras,en:Flavoured chocolates,en:Flavoured milk chocolates,Barra de chocolate con leche y nougat,en:Swiss chocolates</t>
+          <t>Meals, Pizzas pies and quiches, Pizzas, Vegetarian pizzas, Margherita Pizza</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>240g</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Argelia,Australia,Bélgica,Bolivia,Bulgaria,Dinamarca,Finlandia,Francia,Alemania,Italia,Marruecos,Noruega,Polonia,Rumania,España,Suecia,Suiza,Tailandia,Ucrania,Reino Unido</t>
+          <t>en:gb</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -3804,32 +3812,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>almond</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Galbani</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Crunchy Oat Granola Raisin &amp; Almond</t>
+          <t>mozzarella</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages,Plant-based foods,Breakfasts,Cereals and potatoes,Cereals and their products,Breakfast cereals,Breakfast cereals rich in fibre,Granola</t>
+          <t>Latticini, Cibi fermentati, Prodotti lattiero-caseari fermentati, Formaggi, Formaggio vaccino, Formaggi italiani, Pasta filata, Mozzarella, Mozzarella di mucca</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>750g</t>
+          <t>0.125 kg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>France,Royaume-Uni</t>
+          <t>Frankrijk,Duitsland,Italië,Japan,Spanje,Zwitserland,Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3844,32 +3852,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>almond</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Alpen, Weetabix</t>
+          <t>Linda McCartney</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>No Added Sugar Muesli imp</t>
+          <t>2 Vegetarian Mozzarella Burgers</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages, Plant-based foods, Breakfasts, Cereals and potatoes, Cereals and their products, Breakfast cereals, Cereals with fruits, Mueslis, Mueslis with fruits</t>
+          <t>Plant-based foods and beverages, Plant-based foods, Frozen foods, Meat alternatives, Meat analogues, Vegetarian patties</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>560g</t>
+          <t>227 g, 2 burgers</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>France, Germany, United Kingdom, en:ireland</t>
+          <t>France,Ireland,United Kingdom</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3884,37 +3892,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>almond</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>plenish</t>
+          <t>Gastro mixte</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Organic Almond milk</t>
+          <t>Pizzarella premium</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages, Beverages, Plant-based foods, Dairy substitutes, Milk substitutes, Nuts and their products, Plant-based beverages, Plant-based milk alternatives, Nut-based drinks, Almond-based drinks</t>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Italian cheeses, Stretched-curd cheeses, Mozzarella, en:cow-cheeses</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>France, en:united-kingdom</t>
+          <t>en:Morocco</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -3924,33 +3932,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>almond</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>Mozzarella</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Brets</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tchicolata</t>
+          <t>Chips saveur Pesto Mozzarella</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Breakfasts, Spreads, Sweet spreads, fr:Pâtes à tartiner, Almond spreads, en:chocolates</t>
+          <t>Plant-based foods and beverages,Plant-based foods,Snacks,Cereals and potatoes,Salty snacks,Appetizers,Chips and fries,Crisps,Potato crisps,Flavoured potato crisps,Wavy potato crisps</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>900g</t>
+          <t>125 g</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Maroc, en:morocco</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -3960,32 +3972,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>almond</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Crownfield</t>
+          <t>Milbona</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>No Added Sugar Granola Coconut, Cashew &amp; Almond</t>
+          <t>Mozzarella râpée</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages, Plant-based foods, Breakfasts, Cereals and potatoes, Cereals and their products, Breakfast cereals, Mueslis, Breakfast cereal fortified with vitamins, en:cereals-with-fruits</t>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Italian cheeses,Stretched-curd cheeses,Mozzarella,Grated cheese,Grated Mozzarella</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>United Kingdom, en:ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4000,37 +4012,2421 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>almond</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Aldi</t>
+          <t>Galbani</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Harvest Morn Granola Raisin &amp; Almond</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Plant-based foods and beverages, Plant-based foods, Breakfasts, Cereals and potatoes, Cereals and their products, Breakfast cereals, Mueslis</t>
+          <t>Laticínios,Alimentos Fermentados,Produtos lácteos fermentados,Queijos,Queijos de vaca,Queijos italianos,en:Stretched-curd cheeses,Queijos frescos,Mozzarella,en:Cow mozzarella</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>125 g (225 g)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Bélgica,Croácia,Dinamarca,Finlândia,França,Alemanha,Luxemburgo,Países Baixos,Portugal,Espanha,Suécia,Suíça,Reino Unido</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Jaouda</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Perly</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts,Cream cheeses,fr:Fromages-frais-sucres</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>85 g</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Morocco,United States</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Danone</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Assil</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Dairies,Fermented foods,Fermented milk products,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>110 g</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Danone</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Jamila</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Beverages and beverages preparations,Beverages,Dairies,Fermented foods,Fermented milk products,Desserts,Dairy desserts,Dairy drinks,Fermented dairy desserts,Fermented drinks,Fermented dairy desserts with fruits,Fermented milk drinks,Yogurts,Fruit yogurts,Yogurt drinks</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>165 g</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Milbona Lidl</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NATURAL YOGURT</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Dairies,Fermented foods,Fermented milk products,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts,Greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>1kg</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Spain, en:united-kingdom</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Jaouda</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ghilal Yaourt zr3</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Fermented milk products, Desserts, Dairy desserts, Fermented dairy desserts, Yogurts, en:stirred-yogurts</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>110 g</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Yeo Valley Organic</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Yeo Valley Organic kefir natural fermented yogurt</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Beverages, Dairies, Fermented foods, Desserts, Fermented milk products, Dairy desserts, Dairy drinks, Fermented dairy desserts, Fermented drinks, Fermented milk drinks, Kefir yogurts, Kefir</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>350g</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>France, en:united-kingdom</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Fage</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5% Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Fermented milk products, Desserts, Dairy desserts, Fermented dairy desserts, Yogurts, Cow milk yogurts, Greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>50 g</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Greece, United Kingdom, en:ireland</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Milbona, Pilos</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Greek Style Yogurt</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Desserts, Fermented milk products, Dairy desserts, Fermented dairy desserts, Yogurts, Greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Финландия,Унгария,Нидерландия,България</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>The Coconut Collab</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Fermented Coconut Yoghurt Alternative</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Plant-based foods and beverages,Fermented foods,Dairy substitutes,Non-dairy fermented foods,Non-dairy yogurts,Yogurts,Coconut yogurts,Coconutmilk yogurts</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>350 g</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Finland, France, United Kingdom, en:ireland</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Fage</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Fage Total 0% Yogurt</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Desserts, Fermented milk products, Dairy desserts, Fermented dairy desserts, Yogurts, Greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>450 g</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>France, United Kingdom, en:ireland</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Fage</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5% Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Fermented milk products, Desserts, Dairy desserts, Fermented dairy desserts, Yogurts, Cow milk yogurts, Greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>50 g</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Greece, United Kingdom, en:ireland</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Milbona, Pilos</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Greek Style Yogurt</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Desserts, Fermented milk products, Dairy desserts, Fermented dairy desserts, Yogurts, Greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Финландия,Унгария,Нидерландия,България</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Brooklea</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Authentic Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Dairies,Fermented foods,Fermented milk products,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts,Plain fermented dairy desserts,Plain yogurts,Greek-style yogurts,Greek-style yogurts (plain)</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>500g</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Ireland,United Kingdom</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Fage</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5% Greek Yoghurt</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Desserts, Fermented milk products, Dairy desserts, Fermented dairy desserts, Yogurts, Greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>950g</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>en:gb</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Aldi- emporium</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Greek 0%</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Dairies,Fermented foods,Fermented milk products,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts,Greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>500 g</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Greece,Ireland,United Kingdom</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Greek style yoghurt</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Desserts, Fermented milk products, Dairy desserts, Fermented dairy desserts, Yogurts, Greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Ireland,United Kingdom</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Greek Style Natural Yogurt</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Produits laitiers,Produits fermentés,Produits laitiers fermentés,Desserts,Desserts lactés,Desserts lactés fermentés,Yaourts,Desserts lactés fermentés nature,Yaourts natures,Yaourts à la grecque</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>500g</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>France,Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Brooklea</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Greek style natural yoghurt</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Desserts, Fermented milk products, Dairy desserts, Fermented dairy desserts, Yogurts, Plain yogurts, Greek-style yogurts, Plain greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>500 g</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>United Kingdom,en:united-kingdom</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Tesco Finest Greek Yoghurt</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Dairies,Fermented foods,Fermented milk products,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts,Greek-style yogurts,Greek yoghurt</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>500g</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>United Kingdom, en:ireland</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Greek Yogurt</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sainsbury's</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Greek style natural yogurt</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Fermented milk products, Desserts, Dairy desserts, Fermented dairy desserts, Yogurts, Plain fermented dairy desserts, Plain yogurts, Greek-style yogurts</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>500 g</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Jaouda</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Perly</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Desserts,Dairy desserts,Fermented dairy desserts,Yogurts,Cream cheeses,fr:Fromages-frais-sucres</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>85 g</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Morocco,United States</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Cream cheese</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Cream cheeses</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>en:Morocco</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Centrale, Danone, Jebli</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Jebli</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>منتجات`الألبان, الأطعمة المخمرة, en:Fermented milk products, en:Spreads, جبن, en:Salted spreads, en:Cheese spreads, en:Cream cheeses</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>France,Maroc,en:morocco</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Elle &amp; Vire, Savencia</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Le Beurre Tendre Doux</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Dairies, Fats, Spreads, Spreadable fats, Animal fats, Milkfat, Dairy-spread, Butters, Unsalted butters, Sweet cream butters, Butter-82-fat-unsalted-easy-to-spread, fr:Beurres tendres</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>250 g</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Canada,France,Suisse,États-Unis</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Mondelez International</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Dairies,Fermented foods,Fermented milk products,Cheeses,Spreads,Salted spreads,Cheese spreads,Cream cheeses</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>165g</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Ireland,United Kingdom</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Pringles</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Sour Cream &amp; Onion</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Przekąski,Słone przekąski,Przystawki,Chipsy i frytki,Chipsy,en:Salty snacks made from potato</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>165 g</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Algieria,Bułgaria,Chorwacja,Egipt,Węgry,Irak,Liban,Libia,Litwa,Maroko,Polska,Rumunia,Tunezja,Ukraina</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Pringles</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Sour Cream &amp; Onion</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Lanches comida,Petiscos salgados,Aperitivos,en:Chips and fries,en:Crisps,en:Salty snacks made from potato</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>175 g</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>França,Alemanha,Itália,Martinica,Maurícia,Portugal,Reunião,Tailândia</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Kiri</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Kiri carré 8p</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Creams, fr:kiri a la creme de lait, en:cheese-spreads</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8 pièces</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Heinz</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Cream of tomato soup imp</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Soups</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>400g</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Denmark,Germany,Switzerland,United Kingdom,Scotland</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Dairies,Compound dairy creams</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>200 ml</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Whipped Cream</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Hulala</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Hulala Chantilly Mijlocie</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Produse lactate, en:Creams, en:Whipped creams</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>500 ml</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>France, Hungary, en:morocco</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Whipped Cream</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Lidl, envia</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Crème entière sucrée</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Dairies, Creams, Whipped creams, fr:cremes-entieres</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>250 g</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Frankreich, Germany</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Whipped Cream</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Milbona</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Cream Topping</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Dairies, Creams, Whipped creams</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>250 ml</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Bélgica,França,Alemanha</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Whipped Cream</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Food Heaven</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Vegan Whipped Cream</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Dairies, Creams, UHT Creams, Squirty creams, Whipped cream under pressure UHT, Whipped creams</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1pcs</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>United Kingdom, Germany</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Whipped Cream</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Hacendado</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Nata montada</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Laticínios,Natas,en:Whipped creams</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>250 g (243 ml)</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Espanha</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Whipped Cream</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Schlagfix</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Vegan spray topping</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Pflanzliche Lebensmittel und Getränke,Pflanzliche Lebensmittel,Pflanzliche Sahne,en:Pressurized whipped cream substitutes,Schlagsahne</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>200ml</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Austria,Czech Republic,France,Germany,Spain</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Whipped Cream</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Trader Joe's</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Organic Heavy Whipping Cream</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Creams,Whipped creams</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>bilinmiyor</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>en:United Kingdom</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Whipped Cream</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Milbona, Milbona Bio</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>bilinmiyor</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Dairies, Creams, Whipped creams</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>200g</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>en:germany</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Whipped Cream</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Great Value</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Heavy Whipping Cream</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Dairies, Creams, Whipped creams</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>bilinmiyor</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Whipped Cream</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Whipped Cream Cheese Spread</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>22 g</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Milbona</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Natural Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Laticínios,Alimentos Fermentados,Produtos lácteos fermentados,Queijos,Queijos de vaca,Queijos frescos,Cottage</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>300 g</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Finlândia,República da Irlanda,Espanha,Suécia,Reino Unido</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Longley Farm</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Cottage cheese</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Desserts, Fermented milk products, Cheeses, Dairy desserts, Fermented dairy desserts, Plain fermented dairy desserts, Fresh cheeses, Cottage cheeses, Plain cottage cheeses</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>250 g</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>France,United Kingdom</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Lidl,Milbona</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Laticínios,Alimentos Fermentados,Produtos lácteos fermentados,Queijos,Sobremesas,Sobremesas de laticínios,Queijos de vaca,en:Fermented dairy desserts,en:Plain fermented dairy desserts,Queijos frescos,Cottage,en:Plain cottage cheeses</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>200 g</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Finlândia,Alemanha,Portugal,Espanha,Suécia</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Piątnica</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SEREK WIEJSKI</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Nabiał, Żywność fermentowana, Desery, Fermentowane produkty mleczne, Smarowidła, Sery, Desery mleczne, Słone smarowidła, Fermentowane desery mleczne, en:Plain fermented dairy desserts, en:Fresh cheeses, en:Cheese spreads, Cottage cheese, en:Plain cottage cheeses</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>200 g</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>France, Poland, en:united-kingdom</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Hacendado</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>cottage cheese</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Laticínios,Alimentos Fermentados,Produtos lácteos fermentados,Queijos,Queijos frescos,Cottage</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>200 g</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Espanha</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Pilos</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Produits laitiers,Produits fermentés,Produits laitiers fermentés,Fromages,Produits à tartiner,Produits à tartiner salés,Fromages à pâte fraîche,Fromages à tartiner,Cottage cheeses</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>200 g</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Roumanie</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Creamfields low fat cottage cheese</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Fermented milk products, Cheeses, Fresh cheeses, en:cottage-cheeses</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>300 g</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>United Kingdom, en:ireland</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Gervais</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Hüttenkäse</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Milchprodukte, Fermentierte Lebensmittel, Fermentierte Milch, Käse, Desserts, Brotaufstriche, Milchnachspeisen, Gesalzene Aufstriche, en:Fermented dairy desserts, en:Plain fermented dairy desserts, Frischkäse, Streichkäse, Hüttenkäse, en:Cream cheeses, en:Plain cottage cheeses</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>200g</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>By Sainsbury's</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Natural Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Dairies, Fermented foods, Fermented milk products, Spreads, Cheeses, Salted spreads, Fresh cheeses, Cheese spreads, Cottage cheeses</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DANONE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Produits laitiers, Produits fermentés, Produits laitiers fermentés, Produits à tartiner, Fromages, Produits à tartiner salés, Fromages à pâte fraîche, Fromages à tartiner, Cottage cheeses, Fromage-sale-a-tartiner</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>bilinmiyor</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>en:fr</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Pringles</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Sour Cream &amp; Onion</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Przekąski,Słone przekąski,Przystawki,Chipsy i frytki,Chipsy,en:Salty snacks made from potato</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>165 g</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Algieria,Bułgaria,Chorwacja,Egipt,Węgry,Irak,Liban,Libia,Litwa,Maroko,Polska,Rumunia,Tunezja,Ukraina</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Pringles</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sour Cream &amp; Onion</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Lanches comida,Petiscos salgados,Aperitivos,en:Chips and fries,en:Crisps,en:Salty snacks made from potato</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>175 g</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>França,Alemanha,Itália,Martinica,Maurícia,Portugal,Reunião,Tailândia</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Pringles</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sour Cream &amp; Onion®</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>plant-based-foods-and-beverages, plant-based-foods, snacks, cereals-and-potatoes, salty-snacks, appetizers, chips-and-fries, crisps, potato-crisps, da:crackers</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>185g</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>France, Germany, Spain, Switzerland, United Kingdom, en:austria</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Pringles</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Pringles sour cream</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Alimentos y bebidas de origen vegetal, Alimentos de origen vegetal, Botanas, Cereales y patatas, Snacks salados, Aperitivos, en:Chips and fries, Chips fritos, Chips de patatas fritas, Aperitivos salados elaborados con patata</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>40g</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Austria, Belgium, France, Germany, Morocco, Netherlands, Switzerland, United Kingdom, en:spain</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Popchips</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sour Cream &amp; Onion Potato Chips</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>plant-based-foods-and-beverages, plant-based-foods, snacks, cereals-and-potatoes, salty-snacks, appetizers, chips-and-fries, crisps, potato-crisps, da:crackers, puffed-salty-snacks, puffed-salty-snacks-made-from-potato</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>85g</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>en:gb</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Snack a Jacks</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Cool Sour Cream &amp; Chive</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Plant-based foods and beverages, Plant-based foods, Snacks, Cereals and potatoes, Salty snacks, Cereals and their products, Puffed cereal cakes, Puffed rice cakes, en:appetizers</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>117g</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>en:United Kingdom</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Penn State</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>State Baked Pretzels Sour Cream &amp; Chive Flavour</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>snacks, da:crackers</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>France, en:united-kingdom</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Kettle</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Kettle Chips Sweet Chilli and Sour Cream</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Snacks, Salty snacks, Appetizers, Chips and fries, Crisps, en:potato-crisps</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>bilinmiyor</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>France, en:united-kingdom</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Maretti</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Bruschette sour cream</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>snacks, salty-snacks, appetizers, da:crackers, en:crisps</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>70 г</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Bulgaria, France, Serbia, Spain, en:morocco</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Tuc</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>TUC Sour cream &amp; onion</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Crackers(Appetizers)</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>100 g</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Bulgaria,France,Hungary,Romania</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>e</t>
         </is>
       </c>
     </row>
